--- a/xtt_demo/ZXXT_DEMO_130_B_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_130_B_R.XLSX
@@ -110,6 +110,9 @@
 Covert result to double</t>
   </si>
   <si>
+    <t>Pos.</t>
+  </si>
+  <si>
     <t>SUM 1</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
   <si>
     <t>Which field is bigger?
 Result is STRING by default</t>
-  </si>
-  <si>
-    <t>№</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -631,13 +631,13 @@
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>26</v>
@@ -660,7 +660,7 @@
         <v>5021.46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
         <v>10992.90000</v>
@@ -683,7 +683,7 @@
         <v>7717.20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>-5440.45000</v>
@@ -706,7 +706,7 @@
         <v>445.22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>2586.16000</v>
@@ -729,7 +729,7 @@
         <v>3683.27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>13160.06000</v>
@@ -752,7 +752,7 @@
         <v>5525.85</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>10129.85000</v>
@@ -775,7 +775,7 @@
         <v>2260.94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>-101.23000</v>
@@ -798,7 +798,7 @@
         <v>6388.81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>-3898.51000</v>
@@ -821,7 +821,7 @@
         <v>406.18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>5882.99000</v>
@@ -844,7 +844,7 @@
         <v>518.60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>171.06000</v>
@@ -867,7 +867,7 @@
         <v>4061.85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
         <v>1390.02000</v>
@@ -890,7 +890,7 @@
         <v>5436.00</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>-862.45000</v>
@@ -913,7 +913,7 @@
         <v>522.46</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
         <v>673.89000</v>
@@ -936,7 +936,7 @@
         <v>2727.98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <v>4958.97000</v>
@@ -959,7 +959,7 @@
         <v>295.55</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>682.63000</v>
@@ -982,7 +982,7 @@
         <v>8878.56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>-8807.44000</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1043,13 +1043,13 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>26</v>
@@ -1073,7 +1073,7 @@
         <v>5021.46</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
         <v>10992.90000</v>
@@ -1097,7 +1097,7 @@
         <v>7717.20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
         <v>-5440.45000</v>
@@ -1121,7 +1121,7 @@
         <v>445.22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
         <v>2586.16000</v>
@@ -1145,7 +1145,7 @@
         <v>3683.27</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
         <v>13160.06000</v>
@@ -1169,7 +1169,7 @@
         <v>5525.85</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="7">
         <v>10129.85000</v>
@@ -1193,7 +1193,7 @@
         <v>2260.94</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
         <v>-101.23000</v>
@@ -1217,7 +1217,7 @@
         <v>6388.81</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
         <v>-3898.51000</v>
@@ -1241,7 +1241,7 @@
         <v>406.18</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="7">
         <v>5882.99000</v>
@@ -1265,7 +1265,7 @@
         <v>518.60</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
         <v>171.06000</v>
@@ -1289,7 +1289,7 @@
         <v>4061.85</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
         <v>1390.02000</v>
@@ -1313,7 +1313,7 @@
         <v>5436.00</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="7">
         <v>-862.45000</v>
@@ -1337,7 +1337,7 @@
         <v>522.46</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
         <v>673.89000</v>
@@ -1361,7 +1361,7 @@
         <v>2727.98</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
         <v>4958.97000</v>
@@ -1385,7 +1385,7 @@
         <v>295.55</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="7">
         <v>682.63000</v>
@@ -1409,7 +1409,7 @@
         <v>8878.56</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
         <v>-8807.44000</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1471,13 +1471,13 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>26</v>
@@ -1501,7 +1501,7 @@
         <v>5021.46</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
         <v>10992.90000</v>
@@ -1525,7 +1525,7 @@
         <v>3683.27</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
         <v>13160.06000</v>
@@ -1549,7 +1549,7 @@
         <v>5525.85</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
         <v>10129.85000</v>
@@ -1573,7 +1573,7 @@
         <v>406.18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
         <v>5882.99000</v>
@@ -1616,7 +1616,7 @@
         <v>7717.20</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
         <v>-5440.45000</v>
@@ -1640,7 +1640,7 @@
         <v>2260.94</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7">
         <v>-101.23000</v>
@@ -1664,7 +1664,7 @@
         <v>4061.85</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
         <v>1390.02000</v>
@@ -1688,7 +1688,7 @@
         <v>522.46</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
         <v>673.89000</v>
@@ -1712,7 +1712,7 @@
         <v>2727.98</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7">
         <v>4958.97000</v>
@@ -1755,7 +1755,7 @@
         <v>445.22</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="7">
         <v>2586.16000</v>
@@ -1779,7 +1779,7 @@
         <v>6388.81</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
         <v>-3898.51000</v>
@@ -1822,7 +1822,7 @@
         <v>518.60</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
         <v>171.06000</v>
@@ -1846,7 +1846,7 @@
         <v>5436.00</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I23" s="7">
         <v>-862.45000</v>
@@ -1870,7 +1870,7 @@
         <v>295.55</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="7">
         <v>682.63000</v>
@@ -1894,7 +1894,7 @@
         <v>8878.56</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I25" s="7">
         <v>-8807.44000</v>

--- a/xtt_demo/ZXXT_DEMO_130_B_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_130_B_R.XLSX
@@ -110,9 +110,6 @@
 Covert result to double</t>
   </si>
   <si>
-    <t>Pos.</t>
-  </si>
-  <si>
     <t>SUM 1</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   <si>
     <t>Which field is bigger?
 Result is STRING by default</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -631,13 +631,13 @@
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>26</v>
@@ -660,7 +660,7 @@
         <v>5021.46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7">
         <v>10992.90000</v>
@@ -683,7 +683,7 @@
         <v>7717.20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>-5440.45000</v>
@@ -706,7 +706,7 @@
         <v>445.22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>2586.16000</v>
@@ -729,7 +729,7 @@
         <v>3683.27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>13160.06000</v>
@@ -752,7 +752,7 @@
         <v>5525.85</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>10129.85000</v>
@@ -775,7 +775,7 @@
         <v>2260.94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>-101.23000</v>
@@ -798,7 +798,7 @@
         <v>6388.81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>-3898.51000</v>
@@ -821,7 +821,7 @@
         <v>406.18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="7">
         <v>5882.99000</v>
@@ -844,7 +844,7 @@
         <v>518.60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
         <v>171.06000</v>
@@ -867,7 +867,7 @@
         <v>4061.85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>1390.02000</v>
@@ -890,7 +890,7 @@
         <v>5436.00</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>-862.45000</v>
@@ -913,7 +913,7 @@
         <v>522.46</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="7">
         <v>673.89000</v>
@@ -936,7 +936,7 @@
         <v>2727.98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>4958.97000</v>
@@ -959,7 +959,7 @@
         <v>295.55</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
         <v>682.63000</v>
@@ -982,7 +982,7 @@
         <v>8878.56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>-8807.44000</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1043,13 +1043,13 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>26</v>
@@ -1073,7 +1073,7 @@
         <v>5021.46</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
         <v>10992.90000</v>
@@ -1097,7 +1097,7 @@
         <v>7717.20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
         <v>-5440.45000</v>
@@ -1121,7 +1121,7 @@
         <v>445.22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
         <v>2586.16000</v>
@@ -1145,7 +1145,7 @@
         <v>3683.27</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
         <v>13160.06000</v>
@@ -1169,7 +1169,7 @@
         <v>5525.85</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="7">
         <v>10129.85000</v>
@@ -1193,7 +1193,7 @@
         <v>2260.94</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
         <v>-101.23000</v>
@@ -1217,7 +1217,7 @@
         <v>6388.81</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
         <v>-3898.51000</v>
@@ -1241,7 +1241,7 @@
         <v>406.18</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="7">
         <v>5882.99000</v>
@@ -1265,7 +1265,7 @@
         <v>518.60</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
         <v>171.06000</v>
@@ -1289,7 +1289,7 @@
         <v>4061.85</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
         <v>1390.02000</v>
@@ -1313,7 +1313,7 @@
         <v>5436.00</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7">
         <v>-862.45000</v>
@@ -1337,7 +1337,7 @@
         <v>522.46</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7">
         <v>673.89000</v>
@@ -1361,7 +1361,7 @@
         <v>2727.98</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
         <v>4958.97000</v>
@@ -1385,7 +1385,7 @@
         <v>295.55</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
         <v>682.63000</v>
@@ -1409,7 +1409,7 @@
         <v>8878.56</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
         <v>-8807.44000</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1471,13 +1471,13 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>26</v>
@@ -1501,7 +1501,7 @@
         <v>5021.46</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
         <v>10992.90000</v>
@@ -1525,7 +1525,7 @@
         <v>3683.27</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
         <v>13160.06000</v>
@@ -1549,7 +1549,7 @@
         <v>5525.85</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
         <v>10129.85000</v>
@@ -1573,7 +1573,7 @@
         <v>406.18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
         <v>5882.99000</v>
@@ -1616,7 +1616,7 @@
         <v>7717.20</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
         <v>-5440.45000</v>
@@ -1640,7 +1640,7 @@
         <v>2260.94</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="7">
         <v>-101.23000</v>
@@ -1664,7 +1664,7 @@
         <v>4061.85</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
         <v>1390.02000</v>
@@ -1688,7 +1688,7 @@
         <v>522.46</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
         <v>673.89000</v>
@@ -1712,7 +1712,7 @@
         <v>2727.98</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
         <v>4958.97000</v>
@@ -1755,7 +1755,7 @@
         <v>445.22</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
         <v>2586.16000</v>
@@ -1779,7 +1779,7 @@
         <v>6388.81</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
         <v>-3898.51000</v>
@@ -1822,7 +1822,7 @@
         <v>518.60</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="7">
         <v>171.06000</v>
@@ -1846,7 +1846,7 @@
         <v>5436.00</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" s="7">
         <v>-862.45000</v>
@@ -1870,7 +1870,7 @@
         <v>295.55</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
         <v>682.63000</v>
@@ -1894,7 +1894,7 @@
         <v>8878.56</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
         <v>-8807.44000</v>
